--- a/Analysis/Data/benthic2.xlsx
+++ b/Analysis/Data/benthic2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cedar/Desktop/Thesis/PC-ORD/Original Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cedar/Desktop/Cedar's Undergrad Thesis/Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="benthic2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>Stream</t>
   </si>
@@ -140,7 +141,28 @@
     <t>YearTreatQ</t>
   </si>
   <si>
-    <t>BenthoTotal</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>Chucksney</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Loon</t>
+  </si>
+  <si>
+    <t>W-122</t>
+  </si>
+  <si>
+    <t>Chla</t>
   </si>
 </sst>
 </file>
@@ -981,15 +1003,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1009,10 +1031,13 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1031,8 +1056,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1.238694615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1054,8 +1082,11 @@
       <c r="G3">
         <v>4.5925925999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0.87891643860000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1077,8 +1108,11 @@
       <c r="G4">
         <v>3.2222222000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0.50124809800000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1100,8 +1134,11 @@
       <c r="G5">
         <v>1.1363636E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0.45036928570000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1123,8 +1160,11 @@
       <c r="G6">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0.56843871180000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1146,8 +1186,11 @@
       <c r="G7">
         <v>3.1666667000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0.75263291119999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1169,8 +1212,11 @@
       <c r="G8">
         <v>0.177666667</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1.708355018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1192,8 +1238,11 @@
       <c r="G9">
         <v>0.16800000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1.060675528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1215,8 +1264,11 @@
       <c r="G10">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1.0466724810000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1238,8 +1290,11 @@
       <c r="G11">
         <v>0.15366666700000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1.279657169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1261,8 +1316,11 @@
       <c r="G12">
         <v>0.12633333299999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>1.2576769480000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1284,8 +1342,11 @@
       <c r="G13">
         <v>0.106333333</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>4.1639859039999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1307,8 +1368,11 @@
       <c r="G14">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>0.54139647989999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="G15">
         <v>0.80233333299999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>2.3780654800000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1353,8 +1420,11 @@
       <c r="G16">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0.95565876000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1376,8 +1446,11 @@
       <c r="G17">
         <v>0.351566667</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>6.4458840149999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1399,8 +1472,11 @@
       <c r="G18">
         <v>0.134333333</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>1.558891612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1422,8 +1498,11 @@
       <c r="G19">
         <v>0.42133333299999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>2.9420216560000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1445,8 +1524,11 @@
       <c r="G20">
         <v>0.311</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>2.1536021839999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1467,6 +1549,374 @@
       </c>
       <c r="G21">
         <v>0.51666666699999997</v>
+      </c>
+      <c r="H21">
+        <v>2.1376802879999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>1.2576769480000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3">
+        <v>0.54139647989999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4">
+        <v>0.95565876000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>1.558891612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>2.1536021839999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>1.1618141369999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>4.1639859039999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2.3780654800000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6.4458840149999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2.9420216560000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2.1376802879999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>4.1140793330000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>1.238694615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>0.50124809800000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>0.56843871180000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>1.708355018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>1.0466724810000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>2017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>0.35075039619999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>2017</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.87891643860000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.45036928570000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.75263291119999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>2017</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.060675528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>2017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1.279657169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>2017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.53792018029999999</v>
       </c>
     </row>
   </sheetData>
